--- a/data-folder/Données_groupe_12.xlsx
+++ b/data-folder/Données_groupe_12.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données12" sheetId="2" r:id="rId1"/>
@@ -454,13 +454,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>63.370000000000005</v>
+        <v>39.72</v>
       </c>
       <c r="B12">
         <v>93</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,13 +619,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>68.320000000000007</v>
+        <v>22.93</v>
       </c>
       <c r="B27">
         <v>104</v>
       </c>
       <c r="C27">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,13 +685,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>56.57</v>
+        <v>24.709999999999997</v>
       </c>
       <c r="B33">
         <v>101</v>
       </c>
       <c r="C33">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
